--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AC350D-8AAB-4E51-BBC9-C50BDC67E78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53854AA6-42C6-43AD-959E-A7034D0F5B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
+    <workbookView xWindow="-10637" yWindow="9154" windowWidth="22148" windowHeight="13200" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
   <sheets>
     <sheet name="ROVER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Version</t>
   </si>
@@ -91,9 +91,6 @@
     <t>BOMs</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -107,13 +104,28 @@
   </si>
   <si>
     <t>BOM_DCDC</t>
+  </si>
+  <si>
+    <t>Moficacion Puntual del comparador de la tension de entrada</t>
+  </si>
+  <si>
+    <t>2.0.2</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>Modificacion Protocolo de arranque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +161,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -232,37 +250,39 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90806AD9-57A0-44C6-AF8E-190F018DF894}" name="Tabla4" displayName="Tabla4" ref="A2:K8" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A2:K8" xr:uid="{90806AD9-57A0-44C6-AF8E-190F018DF894}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90806AD9-57A0-44C6-AF8E-190F018DF894}" name="Tabla4" displayName="Tabla4" ref="A2:K12" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A2:K12" xr:uid="{90806AD9-57A0-44C6-AF8E-190F018DF894}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -770,220 +790,360 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3030</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3001</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3099</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>9000</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3010</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="12">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
         <v>9</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K10" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3002</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" s="12">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3040</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
-        <v>5</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
         <v>9</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K11" s="7">
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+    </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D76E28-A89E-4822-8141-C3871DFBBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F3D1D-5E07-4025-9EB0-3BB9354F13DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
+    <workbookView xWindow="-18615" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
   <sheets>
     <sheet name="ROVER" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,25 +470,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,28 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,9 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,7 +510,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,80 +863,80 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="17.5703125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -951,73 +945,73 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1036,10 +1030,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1058,10 +1052,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1080,10 +1074,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1122,19 +1116,19 @@
       <c r="M13" s="4">
         <v>10</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1164,10 +1158,10 @@
       <c r="M14" s="4">
         <v>10</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1206,10 +1200,10 @@
       <c r="M15" s="4">
         <v>10</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1248,10 +1242,10 @@
       <c r="M16" s="4">
         <v>10</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1266,7 +1260,7 @@
       <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="4">
@@ -1290,19 +1284,19 @@
       <c r="M17" s="4">
         <v>10</v>
       </c>
-      <c r="N17" s="23"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1332,25 +1326,25 @@
       <c r="M18" s="4">
         <v>10</v>
       </c>
-      <c r="N18" s="23"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="4">
@@ -1374,25 +1368,27 @@
       <c r="M19" s="4">
         <v>10</v>
       </c>
-      <c r="N19" s="23"/>
+      <c r="N19" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="4">
@@ -1416,25 +1412,27 @@
       <c r="M20" s="4">
         <v>10</v>
       </c>
-      <c r="N20" s="23"/>
+      <c r="N20" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="4">
@@ -1458,1255 +1456,1257 @@
       <c r="M21" s="4">
         <v>10</v>
       </c>
-      <c r="N21" s="23"/>
+      <c r="N21" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="23"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="23"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="23"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="23"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="23"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="23"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="23"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="23"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="23"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="23"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="23"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="23"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="23"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="23"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="23"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="23"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="23"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="23"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="23"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="23"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="23"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="23"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="23"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="23"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="23"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="23"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="23"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="23"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="23"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="23"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="23"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="23"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="23"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="23"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="23"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="23"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="11"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="23"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="23"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="23"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="11"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="23"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="23"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="11"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="23"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="11"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="23"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="23"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="23"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="23"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="11"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="23"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="23"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="23"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="23"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="23"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="23"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="23"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="23"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="23"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="23"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="11"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="23"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="23"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="23"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="23"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="23"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="23"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="11"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="23"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="11"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="23"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="11"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="23"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="11"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="23"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="11"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="23"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="11"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="23"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="11"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="23"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="23"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="11"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="23"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="11"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="23"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="11"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="23"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="11"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="23"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="11"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="23"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="11"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="23"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="11"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="30"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="25"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D76E28-A89E-4822-8141-C3871DFBBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C7121A-4FB4-4FF1-8E3C-4B04FA3B7CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Cambios</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>3.1.0</t>
+  </si>
+  <si>
+    <t>Cambio en DCDC. Transistor de PMU</t>
+  </si>
+  <si>
+    <t>1.1.3.2</t>
+  </si>
+  <si>
+    <t>2.0.2.2</t>
+  </si>
+  <si>
+    <t>3.0.1.0</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,86 +488,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,80 +887,80 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="17.5703125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -951,73 +969,73 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1036,10 +1054,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1058,10 +1076,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1080,19 +1098,19 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1122,25 +1140,25 @@
       <c r="M13" s="4">
         <v>10</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="4">
@@ -1164,19 +1182,19 @@
       <c r="M14" s="4">
         <v>10</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1206,10 +1224,10 @@
       <c r="M15" s="4">
         <v>10</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1224,7 +1242,7 @@
       <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="4">
@@ -1248,25 +1266,25 @@
       <c r="M16" s="4">
         <v>10</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="4">
@@ -1290,25 +1308,25 @@
       <c r="M17" s="4">
         <v>10</v>
       </c>
-      <c r="N17" s="23"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4">
@@ -1332,25 +1350,25 @@
       <c r="M18" s="4">
         <v>10</v>
       </c>
-      <c r="N18" s="23"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="4">
@@ -1374,25 +1392,25 @@
       <c r="M19" s="4">
         <v>10</v>
       </c>
-      <c r="N19" s="23"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="4">
@@ -1416,25 +1434,25 @@
       <c r="M20" s="4">
         <v>10</v>
       </c>
-      <c r="N20" s="23"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="4">
@@ -1458,1255 +1476,1333 @@
       <c r="M21" s="4">
         <v>10</v>
       </c>
-      <c r="N21" s="23"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="23"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="31">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>9</v>
+      </c>
+      <c r="M22" s="31">
+        <v>11</v>
+      </c>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="31">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>9</v>
+      </c>
+      <c r="M23" s="31">
+        <v>11</v>
+      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="31">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>9</v>
+      </c>
+      <c r="M24" s="31">
+        <v>11</v>
+      </c>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="23"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="23"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="23"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="23"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="23"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="23"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="23"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="23"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="23"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="23"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="23"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="23"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="23"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="23"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="23"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="23"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="23"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="23"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="23"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="23"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="23"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="23"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="23"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="23"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="23"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="23"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="23"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="23"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="23"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="23"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="23"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="23"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="23"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="23"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="11"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="23"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="23"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="23"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="11"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="23"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="23"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="11"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="23"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="11"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="23"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="23"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="23"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="23"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="11"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="23"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="23"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="23"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="23"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="23"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="23"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="23"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="23"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="23"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="23"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="11"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="23"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="23"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="23"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="23"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="23"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="23"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="11"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="23"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="11"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="23"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="11"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="23"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="11"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="23"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="11"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="23"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="11"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="23"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="11"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="23"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="23"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="11"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="23"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="11"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="23"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="11"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="23"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="11"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="23"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="11"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="23"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="11"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="23"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="11"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="30"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="25"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C7121A-4FB4-4FF1-8E3C-4B04FA3B7CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D76DDC9-998F-41D9-9281-56A7AC97A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>Cambios</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>3.0.1.0</t>
+  </si>
+  <si>
+    <t>Hotfix Issue 83, salida activada con poca bateria</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>1.1.3.3</t>
+  </si>
+  <si>
+    <t>3.0.1.1</t>
+  </si>
+  <si>
+    <t>2.0.2.3</t>
   </si>
 </sst>
 </file>
@@ -476,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,6 +549,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,10 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,8 +914,8 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,56 +938,56 @@
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -969,36 +996,36 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="23" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1059,7 @@
       <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1107,10 +1134,10 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1158,7 +1185,7 @@
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="4">
@@ -1191,10 +1218,10 @@
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1242,7 +1269,7 @@
       <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="4">
@@ -1275,10 +1302,10 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1326,7 +1353,7 @@
       <c r="E18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4">
@@ -1359,10 +1386,10 @@
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1410,7 +1437,7 @@
       <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="4">
@@ -1446,7 +1473,7 @@
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1485,19 +1512,19 @@
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="19">
         <v>6</v>
       </c>
       <c r="H22" s="4">
@@ -1515,7 +1542,7 @@
       <c r="L22" s="4">
         <v>9</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="19">
         <v>11</v>
       </c>
       <c r="N22" s="11"/>
@@ -1527,19 +1554,19 @@
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="31">
+      <c r="F23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="19">
         <v>6</v>
       </c>
       <c r="H23" s="4">
@@ -1557,7 +1584,7 @@
       <c r="L23" s="4">
         <v>9</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="19">
         <v>11</v>
       </c>
       <c r="N23" s="11"/>
@@ -1581,7 +1608,7 @@
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="19">
         <v>6</v>
       </c>
       <c r="H24" s="4">
@@ -1599,57 +1626,135 @@
       <c r="L24" s="4">
         <v>9</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="19">
         <v>11</v>
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="33">
+        <v>6</v>
+      </c>
+      <c r="H25" s="33">
+        <v>5</v>
+      </c>
+      <c r="I25" s="33">
+        <v>2</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1</v>
+      </c>
+      <c r="K25" s="33">
+        <v>5</v>
+      </c>
+      <c r="L25" s="33">
+        <v>9</v>
+      </c>
+      <c r="M25" s="33">
+        <v>11</v>
+      </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="33">
+        <v>6</v>
+      </c>
+      <c r="H26" s="33">
+        <v>5</v>
+      </c>
+      <c r="I26" s="33">
+        <v>2</v>
+      </c>
+      <c r="J26" s="33">
+        <v>1</v>
+      </c>
+      <c r="K26" s="33">
+        <v>5</v>
+      </c>
+      <c r="L26" s="33">
+        <v>9</v>
+      </c>
+      <c r="M26" s="33">
+        <v>11</v>
+      </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="33">
+        <v>6</v>
+      </c>
+      <c r="H27" s="33">
+        <v>5</v>
+      </c>
+      <c r="I27" s="33">
+        <v>2</v>
+      </c>
+      <c r="J27" s="33">
+        <v>1</v>
+      </c>
+      <c r="K27" s="33">
+        <v>5</v>
+      </c>
+      <c r="L27" s="33">
+        <v>9</v>
+      </c>
+      <c r="M27" s="33">
+        <v>11</v>
+      </c>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D76DDC9-998F-41D9-9281-56A7AC97A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E181357-FF07-4F9D-B14A-E6DDEA734B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Cambios</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>2.0.2.3</t>
+  </si>
+  <si>
+    <t>Hotfix Issue 80, Modificacion Nitro Cheyenne</t>
+  </si>
+  <si>
+    <t>3.0.1.2</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,12 +595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,34 +1641,34 @@
       <c r="C25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="H25" s="33">
-        <v>5</v>
-      </c>
-      <c r="I25" s="33">
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="33">
-        <v>5</v>
-      </c>
-      <c r="L25" s="33">
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>9</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="4">
         <v>11</v>
       </c>
       <c r="N25" s="11"/>
@@ -1680,37 +1680,37 @@
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="33">
-        <v>5</v>
-      </c>
-      <c r="I26" s="33">
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="33">
-        <v>5</v>
-      </c>
-      <c r="L26" s="33">
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>9</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="4">
         <v>11</v>
       </c>
       <c r="N26" s="11"/>
@@ -1722,55 +1722,81 @@
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="4">
         <v>6</v>
       </c>
-      <c r="H27" s="33">
-        <v>5</v>
-      </c>
-      <c r="I27" s="33">
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
         <v>2</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="4">
         <v>1</v>
       </c>
-      <c r="K27" s="33">
-        <v>5</v>
-      </c>
-      <c r="L27" s="33">
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>9</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="4">
         <v>11</v>
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>9</v>
+      </c>
+      <c r="M28" s="4">
+        <v>11</v>
+      </c>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E181357-FF07-4F9D-B14A-E6DDEA734B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C15591-2D1B-4A4B-9E61-C711F9AAE26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
   <sheets>
     <sheet name="ROVER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Cambios</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>3.0.1.2</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>26</v>

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C15591-2D1B-4A4B-9E61-C711F9AAE26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91868FD-BEAB-4D13-AB7D-8F4DA9265BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
   <sheets>
     <sheet name="ROVER" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
   <si>
     <t>Cambios</t>
   </si>
   <si>
     <t>Dan Kubin</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
   </si>
   <si>
     <t>DCDC</t>
@@ -100,15 +97,6 @@
     <t>Moficacion Puntual del comparador de la tension de entrada</t>
   </si>
   <si>
-    <t>2.0.2</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>2.0.1</t>
-  </si>
-  <si>
     <t>Modificacion Protocolo de arranque</t>
   </si>
   <si>
@@ -156,12 +144,6 @@
   </si>
   <si>
     <t>Mecanica</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>2.0.3</t>
   </si>
   <si>
     <t>1.1.2.2</t>
@@ -211,9 +193,6 @@
 Cambio en el salto de voltio en voltio.</t>
   </si>
   <si>
-    <t>3.1.0</t>
-  </si>
-  <si>
     <t>Cambio en DCDC. Transistor de PMU</t>
   </si>
   <si>
@@ -229,15 +208,6 @@
     <t>Hotfix Issue 83, salida activada con poca bateria</t>
   </si>
   <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>2.0.4</t>
-  </si>
-  <si>
     <t>1.1.3.3</t>
   </si>
   <si>
@@ -253,7 +223,37 @@
     <t>3.0.1.2</t>
   </si>
   <si>
-    <t>3.1.2</t>
+    <t>4.0.0.0</t>
+  </si>
+  <si>
+    <t>Creacion del modelo Universal</t>
+  </si>
+  <si>
+    <t>1.1.4.4</t>
+  </si>
+  <si>
+    <t>2.0.3.4</t>
+  </si>
+  <si>
+    <t>ANILLO</t>
+  </si>
+  <si>
+    <t>4 ANILLOS</t>
+  </si>
+  <si>
+    <t>CONN FK</t>
+  </si>
+  <si>
+    <t>POGO</t>
+  </si>
+  <si>
+    <t>POGO 4</t>
+  </si>
+  <si>
+    <t>3.0.2.3</t>
+  </si>
+  <si>
+    <t>Hotfix Issue 87,85y86.</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -502,11 +508,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,22 +599,46 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,6 +657,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,11 +982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF0786-E6C7-4307-9339-45491EF3032D}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:F28"/>
+      <pane ySplit="10" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,172 +999,244 @@
     <col min="8" max="8" width="6.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="5"/>
+    <col min="11" max="11" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="7">
+        <f>MAX(C11:C37)</f>
+        <v>125</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:E10" si="0">MAX(D11:D37)</f>
+        <v>313</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f>MAX(F11:F37)</f>
+        <v>205</v>
+      </c>
+      <c r="G10" s="8">
+        <f>MAX(G11:G100)</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10:O10" si="1">MAX(H11:H100)</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <f>MAX(P11:P100)</f>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" ref="Q10:R10" si="2">MAX(Q11:Q100)</f>
+        <v>10</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1106,19 +1246,24 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1128,68 +1273,58 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>9</v>
-      </c>
-      <c r="M13" s="4">
-        <v>10</v>
-      </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
+      <c r="C14" s="19">
+        <v>121</v>
+      </c>
+      <c r="D14" s="19">
+        <v>121</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="19" t="s">
         <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -1203,686 +1338,956 @@
       <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
         <v>5</v>
       </c>
-      <c r="L14" s="4">
+      <c r="Q14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="4">
+      <c r="R14" s="4">
         <v>10</v>
       </c>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="19">
+        <v>201</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4">
-        <v>10</v>
-      </c>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="C18" s="19">
+        <v>122</v>
+      </c>
+      <c r="D18" s="19">
+        <v>122</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="19">
+        <v>202</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19">
+        <v>123</v>
+      </c>
+      <c r="D20" s="19">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>9</v>
-      </c>
-      <c r="M16" s="4">
-        <v>10</v>
-      </c>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4">
-        <v>9</v>
-      </c>
-      <c r="M17" s="4">
-        <v>10</v>
-      </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>5</v>
-      </c>
-      <c r="L18" s="4">
-        <v>9</v>
-      </c>
-      <c r="M18" s="4">
-        <v>10</v>
-      </c>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19">
+        <v>203</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4">
-        <v>9</v>
-      </c>
-      <c r="M19" s="4">
-        <v>10</v>
-      </c>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>9</v>
-      </c>
-      <c r="M20" s="4">
-        <v>10</v>
-      </c>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <v>9</v>
-      </c>
-      <c r="M21" s="4">
-        <v>10</v>
-      </c>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="19">
-        <v>6</v>
-      </c>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4">
-        <v>9</v>
-      </c>
-      <c r="M22" s="19">
-        <v>11</v>
-      </c>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>59</v>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="20">
+        <v>310</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C23" s="19">
+        <v>123</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G23" s="19">
         <v>6</v>
       </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4">
-        <v>9</v>
-      </c>
-      <c r="M23" s="19">
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="19">
         <v>11</v>
       </c>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>60</v>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="19">
+        <v>203</v>
       </c>
       <c r="G24" s="19">
         <v>6</v>
       </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="20">
+        <v>310</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="19">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="19">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="19">
+        <v>204</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="20">
+        <v>311</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="20">
+        <v>312</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="20">
+        <v>125</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="20">
+        <v>7</v>
+      </c>
+      <c r="H30" s="20">
+        <v>6</v>
+      </c>
+      <c r="I30" s="20">
+        <v>3</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>10</v>
+      </c>
+      <c r="R30" s="6">
+        <v>12</v>
+      </c>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="20">
+        <v>205</v>
+      </c>
+      <c r="G31" s="20">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20">
+        <v>6</v>
+      </c>
+      <c r="I31" s="20">
+        <v>3</v>
+      </c>
+      <c r="J31" s="20">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>10</v>
+      </c>
+      <c r="R31" s="6">
+        <v>12</v>
+      </c>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="20">
+        <v>313</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="20">
+        <v>7</v>
+      </c>
+      <c r="H32" s="20">
+        <v>6</v>
+      </c>
+      <c r="I32" s="20">
+        <v>3</v>
+      </c>
+      <c r="J32" s="20">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>10</v>
+      </c>
+      <c r="R32" s="6">
+        <v>12</v>
+      </c>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="20">
+        <v>125</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="20">
+        <v>7</v>
+      </c>
+      <c r="H33" s="20">
+        <v>6</v>
+      </c>
+      <c r="I33" s="20">
+        <v>3</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33" s="20">
         <v>2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="L33" s="20">
         <v>1</v>
       </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>9</v>
-      </c>
-      <c r="M24" s="19">
-        <v>11</v>
-      </c>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4">
-        <v>6</v>
-      </c>
-      <c r="H25" s="4">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="M33" s="20">
+        <v>3</v>
+      </c>
+      <c r="N33" s="20">
+        <v>7</v>
+      </c>
+      <c r="O33" s="20">
         <v>1</v>
       </c>
-      <c r="K25" s="4">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4">
-        <v>9</v>
-      </c>
-      <c r="M25" s="4">
-        <v>11</v>
-      </c>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
-        <v>5</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
-        <v>9</v>
-      </c>
-      <c r="M26" s="4">
-        <v>11</v>
-      </c>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="4">
-        <v>6</v>
-      </c>
-      <c r="H27" s="4">
-        <v>5</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <v>5</v>
-      </c>
-      <c r="L27" s="4">
-        <v>9</v>
-      </c>
-      <c r="M27" s="4">
-        <v>11</v>
-      </c>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="4">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5</v>
-      </c>
-      <c r="L28" s="4">
-        <v>9</v>
-      </c>
-      <c r="M28" s="4">
-        <v>11</v>
-      </c>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>10</v>
+      </c>
+      <c r="R33" s="6">
+        <v>12</v>
+      </c>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
@@ -1896,9 +2301,20 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>10</v>
+      </c>
+      <c r="R34" s="6">
+        <v>12</v>
+      </c>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -1912,9 +2328,14 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -1928,9 +2349,14 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -1944,9 +2370,14 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
@@ -1960,9 +2391,14 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -1976,9 +2412,14 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
@@ -1992,9 +2433,14 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
@@ -2008,9 +2454,14 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
@@ -2024,9 +2475,14 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -2040,9 +2496,14 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -2056,9 +2517,14 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -2072,9 +2538,14 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
@@ -2088,9 +2559,14 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
@@ -2104,9 +2580,14 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
@@ -2120,9 +2601,14 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
@@ -2136,9 +2622,14 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
@@ -2152,9 +2643,14 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
@@ -2168,9 +2664,14 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
@@ -2184,9 +2685,14 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
@@ -2200,9 +2706,14 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
@@ -2216,9 +2727,14 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="11"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
@@ -2232,9 +2748,14 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
@@ -2248,9 +2769,14 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -2264,9 +2790,14 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
@@ -2280,9 +2811,14 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
@@ -2296,9 +2832,14 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
@@ -2312,9 +2853,14 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="11"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
@@ -2328,9 +2874,14 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="11"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
@@ -2344,9 +2895,14 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="11"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
@@ -2360,9 +2916,14 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="11"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
@@ -2376,9 +2937,14 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="11"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
@@ -2392,9 +2958,14 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
@@ -2408,9 +2979,14 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="11"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
@@ -2424,9 +3000,14 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="11"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="1"/>
       <c r="C68" s="6"/>
@@ -2440,9 +3021,14 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="11"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
@@ -2456,9 +3042,14 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="11"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
@@ -2472,9 +3063,14 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="11"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
@@ -2488,9 +3084,14 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -2504,9 +3105,14 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
@@ -2520,9 +3126,14 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
@@ -2536,9 +3147,14 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
@@ -2552,9 +3168,14 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
@@ -2568,9 +3189,14 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="11"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
@@ -2584,9 +3210,14 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="11"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
@@ -2600,9 +3231,14 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="11"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
@@ -2616,9 +3252,14 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="11"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
@@ -2632,9 +3273,14 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
@@ -2648,9 +3294,14 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
@@ -2664,9 +3315,14 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="11"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
@@ -2680,9 +3336,14 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
@@ -2696,9 +3357,14 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="11"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
@@ -2712,9 +3378,14 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -2728,9 +3399,14 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -2744,9 +3420,14 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -2760,9 +3441,14 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="11"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -2776,9 +3462,14 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="11"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -2792,9 +3483,14 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="11"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="11"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -2808,9 +3504,14 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -2824,9 +3525,14 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="11"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -2840,9 +3546,14 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="11"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="11"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -2856,9 +3567,14 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="11"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
@@ -2872,9 +3588,14 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
-      <c r="N95" s="11"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -2888,9 +3609,14 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -2904,9 +3630,14 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
@@ -2920,37 +3651,68 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="11"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="13"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="11"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="P8:R8"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:O8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,7 +3724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F01860D-ED7F-4DFA-9EF4-395BF5F5F1F1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/01.Documentation/Control de versiones de Sistema.xlsx
+++ b/01.Documentation/Control de versiones de Sistema.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91868FD-BEAB-4D13-AB7D-8F4DA9265BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC153D-72F8-49DB-917B-39658E7ACD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{24CF4CE9-DAD2-45B7-A0D0-75488DFF3356}"/>
   </bookViews>
   <sheets>
     <sheet name="ROVER" sheetId="1" r:id="rId1"/>
     <sheet name="TESTs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="76">
   <si>
     <t>Cambios</t>
   </si>
@@ -254,6 +255,21 @@
   </si>
   <si>
     <t>Hotfix Issue 87,85y86.</t>
+  </si>
+  <si>
+    <t>1.1.5.4</t>
+  </si>
+  <si>
+    <t>2.0.4.4</t>
+  </si>
+  <si>
+    <t>3.0.3.3</t>
+  </si>
+  <si>
+    <t>4.0.1.0</t>
+  </si>
+  <si>
+    <t>Hotfix Pull up en DCDC R22 y C11</t>
   </si>
 </sst>
 </file>
@@ -331,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +639,15 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,19 +684,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,8 +1007,8 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="10" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,56 +1036,56 @@
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1072,41 +1094,41 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="38" t="s">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="33" t="s">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
@@ -1131,19 +1153,19 @@
       <c r="J9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="23" t="s">
         <v>68</v>
       </c>
       <c r="P9" s="24" t="s">
@@ -1155,11 +1177,11 @@
       <c r="R9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="34"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="7">
         <f>MAX(C11:C37)</f>
         <v>125</v>
@@ -1178,7 +1200,7 @@
       </c>
       <c r="G10" s="8">
         <f>MAX(G11:G100)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:O10" si="1">MAX(H11:H100)</f>
@@ -1192,7 +1214,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1222,7 +1244,7 @@
       </c>
       <c r="R10" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10" s="21"/>
     </row>
@@ -2060,7 +2082,7 @@
       <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2078,8 +2100,8 @@
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="20">
-        <v>7</v>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="20">
         <v>6</v>
@@ -2117,7 +2139,7 @@
       <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2135,8 +2157,8 @@
       <c r="F31" s="20">
         <v>205</v>
       </c>
-      <c r="G31" s="20">
-        <v>7</v>
+      <c r="G31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H31" s="20">
         <v>6</v>
@@ -2174,7 +2196,7 @@
       <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2192,8 +2214,8 @@
       <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="20">
-        <v>7</v>
+      <c r="G32" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H32" s="20">
         <v>6</v>
@@ -2231,7 +2253,7 @@
       <c r="S32" s="11"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2249,8 +2271,8 @@
       <c r="F33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="20">
-        <v>7</v>
+      <c r="G33" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H33" s="20">
         <v>6</v>
@@ -2287,94 +2309,232 @@
       </c>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>10</v>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="29">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="R34" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="A35" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="29">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="6">
+        <v>13</v>
+      </c>
       <c r="S35" s="11"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="A36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="29">
+        <v>8</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="6">
+        <v>13</v>
+      </c>
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="A37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="29">
+        <v>8</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="6">
+        <v>13</v>
+      </c>
       <c r="S37" s="11"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
